--- a/社员考勤总表.xlsx
+++ b/社员考勤总表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="79">
   <si>
     <t>游戏研究社社员名单</t>
   </si>
@@ -88,6 +88,9 @@
     <t>林柏禧</t>
   </si>
   <si>
+    <t xml:space="preserve">                                                                                                         </t>
+  </si>
+  <si>
     <t>梁方圆</t>
   </si>
   <si>
@@ -166,6 +169,9 @@
     <t>柯锦祺</t>
   </si>
   <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     </t>
+  </si>
+  <si>
     <t>汪帅廷</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
   </si>
   <si>
     <t>程品皓</t>
+  </si>
+  <si>
+    <t>。</t>
   </si>
   <si>
     <t>童心玉</t>
@@ -249,10 +258,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="dd\/mm\/yyyy"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -303,7 +312,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,7 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -323,28 +331,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,7 +417,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -431,7 +425,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,13 +455,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -460,19 +469,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,25 +511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,31 +529,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,19 +553,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,6 +577,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -592,13 +607,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,19 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,13 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,22 +1029,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,21 +1055,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,157 +1106,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="29" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,9 +1374,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1745,8 +1751,8 @@
   <sheetPr/>
   <dimension ref="B1:AE68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12962962962963" defaultRowHeight="13.8"/>
@@ -1784,7 +1790,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
-      <c r="U1" s="42"/>
+      <c r="U1" s="41"/>
     </row>
     <row r="2" ht="20.1" customHeight="1" spans="2:21">
       <c r="B2" s="6"/>
@@ -1808,7 +1814,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="43"/>
+      <c r="U2" s="42"/>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="2:21">
       <c r="B3" s="9" t="s">
@@ -1835,8 +1841,12 @@
       <c r="I3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
+      <c r="J3" s="13">
+        <v>12.5</v>
+      </c>
+      <c r="K3" s="13">
+        <v>12.12</v>
+      </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -1846,7 +1856,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="44"/>
+      <c r="U3" s="43"/>
     </row>
     <row r="4" ht="20.1" customHeight="1" spans="2:21">
       <c r="B4" s="15" t="s">
@@ -1871,8 +1881,12 @@
       <c r="I4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="J4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
@@ -1882,7 +1896,7 @@
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
-      <c r="U4" s="45"/>
+      <c r="U4" s="44"/>
     </row>
     <row r="5" ht="20.1" customHeight="1" spans="2:21">
       <c r="B5" s="19"/>
@@ -1903,8 +1917,12 @@
       <c r="I5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="J5" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L5" s="21"/>
       <c r="M5" s="21"/>
       <c r="N5" s="21"/>
@@ -1914,7 +1932,7 @@
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
-      <c r="U5" s="46"/>
+      <c r="U5" s="45"/>
     </row>
     <row r="6" ht="20.1" customHeight="1" spans="2:21">
       <c r="B6" s="19"/>
@@ -1932,11 +1950,15 @@
       <c r="H6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="I6" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
       <c r="N6" s="21"/>
@@ -1946,7 +1968,7 @@
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
-      <c r="U6" s="46"/>
+      <c r="U6" s="45"/>
     </row>
     <row r="7" ht="20.1" customHeight="1" spans="2:21">
       <c r="B7" s="19"/>
@@ -1967,8 +1989,12 @@
       <c r="I7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
@@ -1978,7 +2004,7 @@
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
-      <c r="U7" s="46"/>
+      <c r="U7" s="45"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:21">
       <c r="B8" s="19"/>
@@ -1999,8 +2025,12 @@
       <c r="I8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
+      <c r="J8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
       <c r="N8" s="21"/>
@@ -2010,7 +2040,7 @@
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
-      <c r="U8" s="46"/>
+      <c r="U8" s="45"/>
     </row>
     <row r="9" ht="20.1" customHeight="1" spans="2:21">
       <c r="B9" s="19"/>
@@ -2031,8 +2061,12 @@
       <c r="I9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="J9" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
       <c r="N9" s="21"/>
@@ -2042,7 +2076,7 @@
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
-      <c r="U9" s="46"/>
+      <c r="U9" s="45"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:21">
       <c r="B10" s="19"/>
@@ -2063,8 +2097,12 @@
       <c r="I10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="J10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
       <c r="N10" s="21"/>
@@ -2074,7 +2112,7 @@
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
-      <c r="U10" s="46"/>
+      <c r="U10" s="45"/>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="2:21">
       <c r="B11" s="19"/>
@@ -2095,8 +2133,12 @@
       <c r="I11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
+      <c r="J11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
       <c r="N11" s="21"/>
@@ -2106,7 +2148,7 @@
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
-      <c r="U11" s="46"/>
+      <c r="U11" s="45"/>
     </row>
     <row r="12" ht="20.1" customHeight="1" spans="2:21">
       <c r="B12" s="19"/>
@@ -2127,8 +2169,12 @@
       <c r="I12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="J12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
       <c r="N12" s="21"/>
@@ -2138,9 +2184,9 @@
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
-      <c r="U12" s="46"/>
-    </row>
-    <row r="13" ht="20.1" customHeight="1" spans="2:21">
+      <c r="U12" s="45"/>
+    </row>
+    <row r="13" ht="20.1" customHeight="1" spans="2:22">
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="21" t="s">
@@ -2159,9 +2205,13 @@
       <c r="I13" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="J13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="40"/>
       <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
@@ -2170,13 +2220,16 @@
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
-      <c r="U13" s="46"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" ht="20.1" customHeight="1" spans="2:21">
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="20" t="s">
@@ -2191,7 +2244,9 @@
       <c r="I14" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J14" s="21"/>
+      <c r="J14" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
@@ -2202,13 +2257,13 @@
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
-      <c r="U14" s="46"/>
+      <c r="U14" s="45"/>
     </row>
     <row r="15" ht="20.1" customHeight="1" spans="2:21">
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="20" t="s">
@@ -2223,8 +2278,12 @@
       <c r="I15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
+      <c r="J15" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
@@ -2234,13 +2293,13 @@
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
-      <c r="U15" s="46"/>
+      <c r="U15" s="45"/>
     </row>
     <row r="16" ht="20.1" customHeight="1" spans="2:21">
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="20" t="s">
@@ -2255,7 +2314,9 @@
       <c r="I16" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="21"/>
+      <c r="J16" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
       <c r="M16" s="21"/>
@@ -2266,13 +2327,13 @@
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
-      <c r="U16" s="46"/>
+      <c r="U16" s="45"/>
     </row>
     <row r="17" ht="20.1" customHeight="1" spans="2:21">
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
       <c r="D17" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="20" t="s">
@@ -2287,8 +2348,12 @@
       <c r="I17" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
+      <c r="J17" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -2298,13 +2363,13 @@
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
-      <c r="U17" s="46"/>
+      <c r="U17" s="45"/>
     </row>
     <row r="18" ht="20.1" customHeight="1" spans="2:21">
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="20" t="s">
@@ -2319,8 +2384,12 @@
       <c r="I18" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="J18" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
       <c r="N18" s="21"/>
@@ -2330,13 +2399,13 @@
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
-      <c r="U18" s="46"/>
+      <c r="U18" s="45"/>
     </row>
     <row r="19" ht="20.1" customHeight="1" spans="2:21">
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="20" t="s">
@@ -2351,7 +2420,9 @@
       <c r="I19" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -2362,13 +2433,13 @@
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
-      <c r="U19" s="46"/>
+      <c r="U19" s="45"/>
     </row>
     <row r="20" ht="20.1" customHeight="1" spans="2:21">
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
       <c r="D20" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="20" t="s">
@@ -2383,8 +2454,12 @@
       <c r="I20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
+      <c r="J20" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L20" s="21"/>
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
@@ -2394,13 +2469,13 @@
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
-      <c r="U20" s="46"/>
+      <c r="U20" s="45"/>
     </row>
     <row r="21" ht="20.1" customHeight="1" spans="2:21">
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="20" t="s">
@@ -2415,8 +2490,12 @@
       <c r="I21" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
+      <c r="J21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L21" s="21"/>
       <c r="M21" s="21"/>
       <c r="N21" s="21"/>
@@ -2426,13 +2505,13 @@
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
-      <c r="U21" s="46"/>
+      <c r="U21" s="45"/>
     </row>
     <row r="22" ht="20.1" customHeight="1" spans="2:21">
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="20" t="s">
@@ -2447,8 +2526,12 @@
       <c r="I22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
+      <c r="J22" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
       <c r="N22" s="21"/>
@@ -2458,13 +2541,13 @@
       <c r="R22" s="21"/>
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
-      <c r="U22" s="46"/>
+      <c r="U22" s="45"/>
     </row>
     <row r="23" ht="20.1" customHeight="1" spans="2:21">
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
       <c r="D23" s="21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="20" t="s">
@@ -2479,7 +2562,9 @@
       <c r="I23" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -2490,13 +2575,13 @@
       <c r="R23" s="21"/>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
-      <c r="U23" s="46"/>
+      <c r="U23" s="45"/>
     </row>
     <row r="24" ht="20.1" customHeight="1" spans="2:21">
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
       <c r="D24" s="21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="20" t="s">
@@ -2511,8 +2596,12 @@
       <c r="I24" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="J24" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
@@ -2522,13 +2611,13 @@
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
-      <c r="U24" s="46"/>
+      <c r="U24" s="45"/>
     </row>
     <row r="25" ht="20.1" customHeight="1" spans="2:21">
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="20" t="s">
@@ -2543,8 +2632,12 @@
       <c r="I25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
+      <c r="J25" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
@@ -2554,13 +2647,13 @@
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
-      <c r="U25" s="46"/>
+      <c r="U25" s="45"/>
     </row>
     <row r="26" ht="20.1" customHeight="1" spans="2:21">
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
       <c r="D26" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="20" t="s">
@@ -2575,8 +2668,12 @@
       <c r="I26" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
+      <c r="J26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
@@ -2586,7 +2683,7 @@
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
-      <c r="U26" s="46"/>
+      <c r="U26" s="45"/>
     </row>
     <row r="27" ht="20.1" customHeight="1" spans="2:21">
       <c r="B27" s="19"/>
@@ -2594,7 +2691,7 @@
         <v>2022</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="20" t="s">
@@ -2609,8 +2706,12 @@
       <c r="I27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+      <c r="J27" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
       <c r="N27" s="21"/>
@@ -2620,13 +2721,13 @@
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
-      <c r="U27" s="46"/>
+      <c r="U27" s="45"/>
     </row>
     <row r="28" ht="20.1" customHeight="1" spans="2:21">
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
       <c r="D28" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="20" t="s">
@@ -2641,7 +2742,9 @@
       <c r="I28" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="K28" s="21"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -2652,13 +2755,13 @@
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
-      <c r="U28" s="46"/>
+      <c r="U28" s="45"/>
     </row>
     <row r="29" ht="20.1" customHeight="1" spans="2:21">
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
       <c r="D29" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="20" t="s">
@@ -2673,8 +2776,12 @@
       <c r="I29" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
+      <c r="J29" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
@@ -2684,13 +2791,13 @@
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
-      <c r="U29" s="46"/>
+      <c r="U29" s="45"/>
     </row>
     <row r="30" ht="20.1" customHeight="1" spans="2:21">
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
       <c r="D30" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="20" t="s">
@@ -2705,7 +2812,9 @@
       <c r="I30" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="21"/>
+      <c r="J30" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="K30" s="21"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -2716,13 +2825,13 @@
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
-      <c r="U30" s="46"/>
+      <c r="U30" s="45"/>
     </row>
     <row r="31" ht="20.1" customHeight="1" spans="2:21">
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
       <c r="D31" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E31" s="22"/>
       <c r="F31" s="20" t="s">
@@ -2737,8 +2846,12 @@
       <c r="I31" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
+      <c r="J31" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
       <c r="N31" s="21"/>
@@ -2748,13 +2861,13 @@
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="46"/>
+      <c r="U31" s="45"/>
     </row>
     <row r="32" ht="20.1" customHeight="1" spans="2:21">
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E32" s="22"/>
       <c r="F32" s="20" t="s">
@@ -2769,8 +2882,12 @@
       <c r="I32" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
+      <c r="J32" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
@@ -2780,13 +2897,13 @@
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
-      <c r="U32" s="46"/>
+      <c r="U32" s="45"/>
     </row>
     <row r="33" ht="20.1" customHeight="1" spans="2:21">
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
       <c r="D33" s="21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="20" t="s">
@@ -2801,7 +2918,9 @@
       <c r="I33" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J33" s="21"/>
+      <c r="J33" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="K33" s="21"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
@@ -2812,13 +2931,13 @@
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
-      <c r="U33" s="46"/>
+      <c r="U33" s="45"/>
     </row>
     <row r="34" ht="20.1" customHeight="1" spans="2:21">
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
       <c r="D34" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="22"/>
       <c r="F34" s="20" t="s">
@@ -2833,8 +2952,12 @@
       <c r="I34" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
+      <c r="J34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
@@ -2844,13 +2967,13 @@
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
-      <c r="U34" s="46"/>
+      <c r="U34" s="45"/>
     </row>
     <row r="35" ht="20.1" customHeight="1" spans="2:21">
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
       <c r="D35" s="21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="20" t="s">
@@ -2865,7 +2988,9 @@
       <c r="I35" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J35" s="21"/>
+      <c r="J35" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="K35" s="21"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -2876,13 +3001,13 @@
       <c r="R35" s="21"/>
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
-      <c r="U35" s="46"/>
+      <c r="U35" s="45"/>
     </row>
     <row r="36" ht="20.1" customHeight="1" spans="2:21">
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
       <c r="D36" s="21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="20" t="s">
@@ -2897,7 +3022,9 @@
       <c r="I36" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J36" s="21"/>
+      <c r="J36" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="K36" s="21"/>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
@@ -2908,13 +3035,13 @@
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
-      <c r="U36" s="46"/>
+      <c r="U36" s="45"/>
     </row>
     <row r="37" ht="20.1" customHeight="1" spans="2:21">
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
       <c r="D37" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="20" t="s">
@@ -2929,7 +3056,9 @@
       <c r="I37" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="21"/>
+      <c r="J37" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
@@ -2940,13 +3069,13 @@
       <c r="R37" s="21"/>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
-      <c r="U37" s="46"/>
+      <c r="U37" s="45"/>
     </row>
     <row r="38" ht="20.1" customHeight="1" spans="2:21">
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
       <c r="D38" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="20" t="s">
@@ -2961,7 +3090,9 @@
       <c r="I38" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J38" s="21"/>
+      <c r="J38" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
@@ -2972,13 +3103,13 @@
       <c r="R38" s="21"/>
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
-      <c r="U38" s="46"/>
-    </row>
-    <row r="39" ht="20.1" customHeight="1" spans="2:21">
+      <c r="U38" s="45"/>
+    </row>
+    <row r="39" ht="20.1" customHeight="1" spans="2:25">
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
       <c r="D39" s="21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E39" s="22"/>
       <c r="F39" s="20" t="s">
@@ -2993,8 +3124,12 @@
       <c r="I39" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
+      <c r="J39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L39" s="21"/>
       <c r="M39" s="21"/>
       <c r="N39" s="21"/>
@@ -3004,13 +3139,16 @@
       <c r="R39" s="21"/>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
-      <c r="U39" s="46"/>
+      <c r="U39" s="21"/>
+      <c r="Y39" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="40" ht="20.1" customHeight="1" spans="2:21">
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E40" s="22"/>
       <c r="F40" s="20" t="s">
@@ -3025,8 +3163,12 @@
       <c r="I40" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
+      <c r="J40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L40" s="21"/>
       <c r="M40" s="21"/>
       <c r="N40" s="21"/>
@@ -3036,13 +3178,13 @@
       <c r="R40" s="21"/>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
-      <c r="U40" s="46"/>
+      <c r="U40" s="45"/>
     </row>
     <row r="41" ht="20.1" customHeight="1" spans="2:21">
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
       <c r="D41" s="21" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E41" s="22"/>
       <c r="F41" s="20" t="s">
@@ -3057,7 +3199,9 @@
       <c r="I41" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J41" s="21"/>
+      <c r="J41" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="21"/>
@@ -3068,13 +3212,13 @@
       <c r="R41" s="21"/>
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
-      <c r="U41" s="46"/>
+      <c r="U41" s="45"/>
     </row>
     <row r="42" ht="20.1" customHeight="1" spans="2:21">
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
       <c r="D42" s="21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="20" t="s">
@@ -3089,8 +3233,12 @@
       <c r="I42" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="21"/>
-      <c r="K42" s="21"/>
+      <c r="J42" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="21">
+        <v>0</v>
+      </c>
       <c r="L42" s="21"/>
       <c r="M42" s="21"/>
       <c r="N42" s="21"/>
@@ -3100,13 +3248,13 @@
       <c r="R42" s="21"/>
       <c r="S42" s="21"/>
       <c r="T42" s="21"/>
-      <c r="U42" s="46"/>
+      <c r="U42" s="45"/>
     </row>
     <row r="43" ht="20.1" customHeight="1" spans="2:21">
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
       <c r="D43" s="21" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="20" t="s">
@@ -3121,7 +3269,9 @@
       <c r="I43" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J43" s="21"/>
+      <c r="J43" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="21"/>
@@ -3132,13 +3282,13 @@
       <c r="R43" s="21"/>
       <c r="S43" s="21"/>
       <c r="T43" s="21"/>
-      <c r="U43" s="46"/>
+      <c r="U43" s="45"/>
     </row>
     <row r="44" ht="20.1" customHeight="1" spans="2:21">
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
       <c r="D44" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="20" t="s">
@@ -3153,8 +3303,12 @@
       <c r="I44" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
+      <c r="J44" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>57</v>
+      </c>
       <c r="L44" s="21"/>
       <c r="M44" s="21"/>
       <c r="N44" s="21"/>
@@ -3164,13 +3318,13 @@
       <c r="R44" s="21"/>
       <c r="S44" s="21"/>
       <c r="T44" s="21"/>
-      <c r="U44" s="46"/>
+      <c r="U44" s="45"/>
     </row>
     <row r="45" ht="20.1" customHeight="1" spans="2:21">
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
       <c r="D45" s="21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="20" t="s">
@@ -3185,8 +3339,12 @@
       <c r="I45" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
+      <c r="J45" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
@@ -3196,13 +3354,13 @@
       <c r="R45" s="21"/>
       <c r="S45" s="21"/>
       <c r="T45" s="21"/>
-      <c r="U45" s="46"/>
+      <c r="U45" s="45"/>
     </row>
     <row r="46" ht="20.1" customHeight="1" spans="2:21">
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
       <c r="D46" s="21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E46" s="22"/>
       <c r="F46" s="20" t="s">
@@ -3217,8 +3375,12 @@
       <c r="I46" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
+      <c r="J46" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
       <c r="N46" s="21"/>
@@ -3228,13 +3390,13 @@
       <c r="R46" s="21"/>
       <c r="S46" s="21"/>
       <c r="T46" s="21"/>
-      <c r="U46" s="46"/>
+      <c r="U46" s="45"/>
     </row>
     <row r="47" ht="20.1" customHeight="1" spans="2:21">
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
       <c r="D47" s="21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="20" t="s">
@@ -3249,8 +3411,12 @@
       <c r="I47" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
+      <c r="J47" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
       <c r="N47" s="21"/>
@@ -3260,13 +3426,13 @@
       <c r="R47" s="21"/>
       <c r="S47" s="21"/>
       <c r="T47" s="21"/>
-      <c r="U47" s="46"/>
+      <c r="U47" s="45"/>
     </row>
     <row r="48" ht="20.1" customHeight="1" spans="2:21">
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
       <c r="D48" s="21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="20" t="s">
@@ -3281,7 +3447,9 @@
       <c r="I48" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J48" s="21"/>
+      <c r="J48" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
@@ -3292,13 +3460,13 @@
       <c r="R48" s="21"/>
       <c r="S48" s="21"/>
       <c r="T48" s="21"/>
-      <c r="U48" s="46"/>
+      <c r="U48" s="45"/>
     </row>
     <row r="49" ht="20.1" customHeight="1" spans="2:21">
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
       <c r="D49" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="20" t="s">
@@ -3313,8 +3481,12 @@
       <c r="I49" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
+      <c r="J49" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
       <c r="N49" s="21"/>
@@ -3324,13 +3496,13 @@
       <c r="R49" s="21"/>
       <c r="S49" s="21"/>
       <c r="T49" s="21"/>
-      <c r="U49" s="46"/>
+      <c r="U49" s="45"/>
     </row>
     <row r="50" ht="20.1" customHeight="1" spans="2:21">
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
       <c r="D50" s="21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="20" t="s">
@@ -3345,8 +3517,12 @@
       <c r="I50" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J50" s="21"/>
-      <c r="K50" s="21"/>
+      <c r="J50" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
       <c r="N50" s="21"/>
@@ -3356,13 +3532,13 @@
       <c r="R50" s="21"/>
       <c r="S50" s="21"/>
       <c r="T50" s="21"/>
-      <c r="U50" s="46"/>
+      <c r="U50" s="45"/>
     </row>
     <row r="51" ht="20.1" customHeight="1" spans="2:21">
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
       <c r="D51" s="21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="20" t="s">
@@ -3377,7 +3553,9 @@
       <c r="I51" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J51" s="21"/>
+      <c r="J51" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
@@ -3388,13 +3566,13 @@
       <c r="R51" s="21"/>
       <c r="S51" s="21"/>
       <c r="T51" s="21"/>
-      <c r="U51" s="46"/>
+      <c r="U51" s="45"/>
     </row>
     <row r="52" ht="20.1" customHeight="1" spans="2:21">
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
       <c r="D52" s="21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="20" t="s">
@@ -3409,7 +3587,9 @@
       <c r="I52" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J52" s="21"/>
+      <c r="J52" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
@@ -3420,13 +3600,13 @@
       <c r="R52" s="21"/>
       <c r="S52" s="21"/>
       <c r="T52" s="21"/>
-      <c r="U52" s="46"/>
+      <c r="U52" s="45"/>
     </row>
     <row r="53" ht="20.1" customHeight="1" spans="2:21">
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
       <c r="D53" s="21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="20" t="s">
@@ -3441,8 +3621,12 @@
       <c r="I53" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
+      <c r="J53" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
       <c r="N53" s="21"/>
@@ -3452,13 +3636,13 @@
       <c r="R53" s="21"/>
       <c r="S53" s="21"/>
       <c r="T53" s="21"/>
-      <c r="U53" s="46"/>
+      <c r="U53" s="45"/>
     </row>
     <row r="54" ht="20.1" customHeight="1" spans="2:21">
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
       <c r="D54" s="21" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="20" t="s">
@@ -3473,8 +3657,12 @@
       <c r="I54" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
+      <c r="J54" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
       <c r="N54" s="21"/>
@@ -3484,20 +3672,22 @@
       <c r="R54" s="21"/>
       <c r="S54" s="21"/>
       <c r="T54" s="21"/>
-      <c r="U54" s="46"/>
+      <c r="U54" s="45"/>
     </row>
     <row r="55" ht="20.1" customHeight="1" spans="2:21">
       <c r="B55" s="23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C55" s="9">
         <v>2021</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E55" s="22"/>
-      <c r="F55" s="20"/>
+      <c r="F55" s="20" t="s">
+        <v>13</v>
+      </c>
       <c r="G55" s="21" t="s">
         <v>13</v>
       </c>
@@ -3507,8 +3697,12 @@
       <c r="I55" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
+      <c r="J55" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="L55" s="21"/>
       <c r="M55" s="21"/>
       <c r="N55" s="21"/>
@@ -3518,13 +3712,13 @@
       <c r="R55" s="21"/>
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
-      <c r="U55" s="46"/>
+      <c r="U55" s="45"/>
     </row>
     <row r="56" ht="20.1" customHeight="1" spans="2:21">
       <c r="B56" s="23"/>
       <c r="C56" s="9"/>
       <c r="D56" s="21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="20"/>
@@ -3537,8 +3731,12 @@
       <c r="I56" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
+      <c r="J56" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L56" s="21"/>
       <c r="M56" s="21"/>
       <c r="N56" s="21"/>
@@ -3548,13 +3746,13 @@
       <c r="R56" s="21"/>
       <c r="S56" s="21"/>
       <c r="T56" s="21"/>
-      <c r="U56" s="46"/>
+      <c r="U56" s="45"/>
     </row>
     <row r="57" ht="20.1" customHeight="1" spans="2:21">
       <c r="B57" s="23"/>
       <c r="C57" s="9"/>
       <c r="D57" s="21" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="20" t="s">
@@ -3569,8 +3767,12 @@
       <c r="I57" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
+      <c r="J57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>13</v>
+      </c>
       <c r="L57" s="21"/>
       <c r="M57" s="21"/>
       <c r="N57" s="21"/>
@@ -3580,13 +3782,13 @@
       <c r="R57" s="21"/>
       <c r="S57" s="21"/>
       <c r="T57" s="21"/>
-      <c r="U57" s="46"/>
+      <c r="U57" s="45"/>
     </row>
     <row r="58" ht="20.1" customHeight="1" spans="2:21">
       <c r="B58" s="23"/>
       <c r="C58" s="9"/>
       <c r="D58" s="21" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="20"/>
@@ -3599,8 +3801,12 @@
       <c r="I58" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
+      <c r="J58" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="K58" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L58" s="21"/>
       <c r="M58" s="21"/>
       <c r="N58" s="21"/>
@@ -3610,7 +3816,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="21"/>
       <c r="T58" s="21"/>
-      <c r="U58" s="46"/>
+      <c r="U58" s="45"/>
     </row>
     <row r="59" ht="20.1" customHeight="1" spans="2:21">
       <c r="B59" s="19">
@@ -3620,7 +3826,7 @@
         <v>2021</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E59" s="25"/>
       <c r="F59" s="26"/>
@@ -3629,10 +3835,14 @@
         <v>13</v>
       </c>
       <c r="I59" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
+        <v>13</v>
+      </c>
+      <c r="J59" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="27" t="s">
+        <v>13</v>
+      </c>
       <c r="L59" s="27"/>
       <c r="M59" s="27"/>
       <c r="N59" s="27"/>
@@ -3642,17 +3852,17 @@
       <c r="R59" s="27"/>
       <c r="S59" s="27"/>
       <c r="T59" s="27"/>
-      <c r="U59" s="47"/>
+      <c r="U59" s="46"/>
     </row>
     <row r="60" ht="20.1" customHeight="1" spans="2:21">
       <c r="B60" s="28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C60" s="26">
         <v>2022</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E60" s="25"/>
       <c r="F60" s="26"/>
@@ -3661,8 +3871,12 @@
       <c r="I60" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
+      <c r="J60" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L60" s="27"/>
       <c r="M60" s="27"/>
       <c r="N60" s="27"/>
@@ -3672,27 +3886,31 @@
       <c r="R60" s="27"/>
       <c r="S60" s="27"/>
       <c r="T60" s="27"/>
-      <c r="U60" s="47"/>
+      <c r="U60" s="46"/>
     </row>
     <row r="61" ht="20.1" customHeight="1" spans="2:21">
       <c r="B61" s="28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C61" s="30">
         <v>2021</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E61" s="32"/>
       <c r="F61" s="30"/>
       <c r="G61" s="33"/>
-      <c r="H61" s="34"/>
+      <c r="H61" s="33"/>
       <c r="I61" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J61" s="33"/>
-      <c r="K61" s="33"/>
+      <c r="J61" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="40" t="s">
+        <v>13</v>
+      </c>
       <c r="L61" s="33"/>
       <c r="M61" s="33"/>
       <c r="N61" s="33"/>
@@ -3702,75 +3920,75 @@
       <c r="R61" s="33"/>
       <c r="S61" s="33"/>
       <c r="T61" s="33"/>
-      <c r="U61" s="48"/>
+      <c r="U61" s="47"/>
     </row>
     <row r="62" spans="2:21">
-      <c r="B62" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="49"/>
+      <c r="B62" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
+      <c r="T62" s="35"/>
+      <c r="U62" s="48"/>
     </row>
     <row r="63" spans="2:21">
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
-      <c r="K63" s="38"/>
-      <c r="L63" s="38"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
-      <c r="Q63" s="38"/>
-      <c r="R63" s="38"/>
-      <c r="S63" s="38"/>
-      <c r="T63" s="38"/>
-      <c r="U63" s="50"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="49"/>
     </row>
     <row r="64" ht="14.55" spans="2:21">
-      <c r="B64" s="39"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="51"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="39"/>
+      <c r="O64" s="39"/>
+      <c r="P64" s="39"/>
+      <c r="Q64" s="39"/>
+      <c r="R64" s="39"/>
+      <c r="S64" s="39"/>
+      <c r="T64" s="39"/>
+      <c r="U64" s="50"/>
     </row>
     <row r="68" spans="31:31">
       <c r="AE68" s="1">
